--- a/feedback/feedback_reponsive.xlsx
+++ b/feedback/feedback_reponsive.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\thuebannhadat\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thuebannhadat\feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="trangchu" sheetId="4" r:id="rId1"/>
@@ -20,15 +20,19 @@
     <sheet name="quanlytin" sheetId="15" r:id="rId6"/>
     <sheet name="thongtintaikhoan" sheetId="16" r:id="rId7"/>
     <sheet name="thongbao" sheetId="17" r:id="rId8"/>
-    <sheet name="lichsugiaodich" sheetId="18" r:id="rId9"/>
-    <sheet name="thaydoiavatar" sheetId="19" r:id="rId10"/>
+    <sheet name="thaydoiavatar" sheetId="19" r:id="rId9"/>
+    <sheet name="dichvu" sheetId="20" r:id="rId10"/>
+    <sheet name="dichvu-detail" sheetId="21" r:id="rId11"/>
+    <sheet name="duan" sheetId="22" r:id="rId12"/>
+    <sheet name="duan-chitiet" sheetId="23" r:id="rId13"/>
+    <sheet name="chitiet" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>1)</t>
   </si>
@@ -66,9 +70,6 @@
     <t>Màn hình đăng ký dấu x bị nhảy xuống hàng</t>
   </si>
   <si>
-    <t>hãy bỏ xem theo</t>
-  </si>
-  <si>
     <t>3) Khi test trên iphone bị lỗi hiển thị hình</t>
   </si>
   <si>
@@ -117,12 +118,6 @@
     <t>Không thẳng hàng</t>
   </si>
   <si>
-    <t>Tăng kích thước ra. Sao cho canh phải ngang với button muatin</t>
-  </si>
-  <si>
-    <t>canh phải ngang với button muatin</t>
-  </si>
-  <si>
     <t>7) Cho hiện dấu x để tắt popup</t>
   </si>
   <si>
@@ -159,7 +154,37 @@
     <t>Hay cho 2 button hiện giống thế này. Tức là mõi button là 1 dòng</t>
   </si>
   <si>
-    <t>Bị bể giao diện</t>
+    <t>hãy bỏ xem theo ở tất cả các trang khác(chỉ bỏ trên mobile)</t>
+  </si>
+  <si>
+    <t>Tăng kích thước "Chọn số tin đăng" ra. Canh phải ngang với button muatin</t>
+  </si>
+  <si>
+    <t>Tổng giá canh phải ngang với button muatin</t>
+  </si>
+  <si>
+    <t>1) Đang bị đè chữ</t>
+  </si>
+  <si>
+    <t>1) Đang bị bể, hãy cho xuống thành 1 dòng riêng</t>
+  </si>
+  <si>
+    <t>2) Đang bị đè chữ</t>
+  </si>
+  <si>
+    <t>1) Bị mất nội dung so với chạy trên web</t>
+  </si>
+  <si>
+    <t>1) Hiển thị các tab đang bị bể</t>
+  </si>
+  <si>
+    <t>2) Cho hiển thị thẳng hàng , tạo khoản cách giửa button facebook và skype</t>
+  </si>
+  <si>
+    <t>3) Bị đè chữ</t>
+  </si>
+  <si>
+    <t>1) Cho hiển thị thành 2 dòng. Mỗi dòng 2 button. Tạo Khoảng cách phân biệt giữa 2 dòng</t>
   </si>
 </sst>
 </file>
@@ -461,6 +486,373 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37714</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="3085714" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590171</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2476500"/>
+          <a:ext cx="3028571" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132957</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="504825"/>
+          <a:ext cx="3142857" cy="2238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28190</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3619500"/>
+          <a:ext cx="3076190" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47239</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="409575"/>
+          <a:ext cx="3085714" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18667</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="3066667" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37717</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="4914900"/>
+          <a:ext cx="3066667" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37714</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7239000"/>
+          <a:ext cx="3085714" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609215</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="714375"/>
+          <a:ext cx="3076190" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1202,6 +1594,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380571</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>27833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20955000"/>
+          <a:ext cx="3428571" cy="5933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1358,43 +1788,6 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image49.jpg" title="Hình ảnh"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="14859000"/>
-          <a:ext cx="1866900" cy="3648075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1826,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1850,7 +2243,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1863,20 +2256,20 @@
     </row>
     <row r="35" spans="1:6">
       <c r="F35" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1">
       <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1">
@@ -1884,16 +2277,14 @@
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1">
       <c r="A103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="138" spans="1:1" ht="15" customHeight="1">
-      <c r="A138" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A138" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1904,25 +2295,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B30"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="7" t="s">
-        <v>42</v>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1931,12 +2314,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1968,44 +2450,44 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1">
       <c r="A60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1">
       <c r="A129" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1">
       <c r="A164" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1">
       <c r="A199" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
@@ -2035,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -2046,7 +2528,7 @@
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1">
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2054,12 +2536,12 @@
     </row>
     <row r="37" spans="1:1" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" customHeight="1">
@@ -2075,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2093,7 +2575,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -2111,7 +2593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -2122,17 +2604,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2143,53 +2625,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H90"/>
+  <dimension ref="A2:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="H61" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2202,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2213,17 +2703,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2231,20 +2721,20 @@
         <v>1</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2257,15 +2747,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="27" spans="2:2">
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2276,14 +2766,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/feedback/feedback_reponsive.xlsx
+++ b/feedback/feedback_reponsive.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>1)</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>1) Cho hiển thị thành 2 dòng. Mỗi dòng 2 button. Tạo Khoảng cách phân biệt giữa 2 dòng</t>
+  </si>
+  <si>
+    <t>2) Khi lick vào ngân hàng</t>
+  </si>
+  <si>
+    <t>Hay cho hiển thị xuống dòng. Ví dụ:</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhà mặt tiền phố</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>1 Tỷ 2</t>
   </si>
 </sst>
 </file>
@@ -265,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -276,6 +294,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,6 +861,44 @@
         <a:xfrm>
           <a:off x="581025" y="714375"/>
           <a:ext cx="3076190" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380648</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>151881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="2819048" cy="4152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2407,9 +2464,41 @@
         <v>50</v>
       </c>
     </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/feedback/feedback_reponsive.xlsx
+++ b/feedback/feedback_reponsive.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\thuebannhadat\feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="trangchu" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>1)</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Hay cho 2 button hiện giống thế này. Tức là mõi button là 1 dòng</t>
+  </si>
+  <si>
+    <t>Bị bể giao diện</t>
   </si>
 </sst>
 </file>
@@ -1355,6 +1358,43 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="image49.jpg" title="Hình ảnh"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14859000"/>
+          <a:ext cx="1866900" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1786,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1866,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1895,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L197" sqref="L197"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1978,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
@@ -2105,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2160,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B76"/>
+  <dimension ref="A2:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2194,9 +2234,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2">
       <c r="B76" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
